--- a/DataHub/feilinshan_20181014_150645.xlsx
+++ b/DataHub/feilinshan_20181014_150645.xlsx
@@ -2652,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2696,80 +2696,86 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="E2" s="1">
-        <v>0.94940000000000002</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>316</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="E3" s="1">
-        <v>0.94940000000000002</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>293</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="E4" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -2777,28 +2783,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E5" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -2806,28 +2812,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="E6" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -2835,28 +2841,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
@@ -2864,28 +2870,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E8" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -2893,28 +2899,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E9" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
@@ -2922,28 +2928,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E10" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -2951,28 +2957,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="E11" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -2980,28 +2986,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E12" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
@@ -3009,28 +3015,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E13" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -3038,28 +3044,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E14" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>332</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
@@ -3067,28 +3073,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E15" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -3096,28 +3102,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="E16" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -3125,28 +3131,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E17" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -3154,28 +3160,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E18" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -3183,28 +3189,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E19" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -3212,28 +3218,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E20" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -3241,28 +3247,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="E21" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -3270,28 +3276,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E22" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -3299,28 +3305,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E23" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="I23" t="s">
         <v>16</v>
@@ -3328,28 +3334,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E24" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
@@ -3357,28 +3363,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E25" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>302</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -3386,28 +3392,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E26" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
@@ -3415,28 +3421,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E27" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
@@ -3444,28 +3450,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E28" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
@@ -3473,28 +3479,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E29" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -3502,28 +3508,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="E30" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -3531,28 +3537,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E31" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
@@ -3560,28 +3566,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="E32" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
@@ -3589,28 +3595,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="E33" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F33" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
@@ -3618,28 +3624,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>466</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>471</v>
+        <v>292</v>
       </c>
       <c r="D34" t="s">
-        <v>472</v>
+        <v>241</v>
       </c>
       <c r="E34" s="1">
-        <v>0.83479999999999999</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>473</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>474</v>
+        <v>302</v>
       </c>
       <c r="I34" t="s">
         <v>16</v>
@@ -3647,28 +3653,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E35" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="I35" t="s">
         <v>16</v>
@@ -3676,28 +3682,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>531</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>504</v>
+        <v>292</v>
       </c>
       <c r="D36" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="E36" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>532</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -3705,28 +3711,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E37" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
@@ -3734,28 +3740,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E38" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -3763,28 +3769,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E39" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -3792,28 +3798,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E40" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
@@ -3821,28 +3827,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E41" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
@@ -3850,28 +3856,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E42" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="I42" t="s">
         <v>16</v>
@@ -3879,28 +3885,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E43" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
@@ -3908,28 +3914,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="E44" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
@@ -3937,28 +3943,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>503</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>504</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="E45" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F45" t="s">
-        <v>505</v>
+        <v>242</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>506</v>
+        <v>243</v>
       </c>
       <c r="I45" t="s">
         <v>16</v>
@@ -3966,28 +3972,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E46" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="I46" t="s">
         <v>16</v>
@@ -3995,28 +4001,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E47" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
@@ -4024,28 +4030,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E48" s="1">
-        <v>0.81110000000000004</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="I48" t="s">
         <v>16</v>
@@ -4053,28 +4059,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E49" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="I49" t="s">
         <v>16</v>
@@ -4082,28 +4088,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="E50" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="I50" t="s">
         <v>16</v>
@@ -4111,28 +4117,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="E51" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
@@ -4140,28 +4146,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E52" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -4169,28 +4175,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>531</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>509</v>
+        <v>236</v>
       </c>
       <c r="D53" t="s">
-        <v>510</v>
+        <v>237</v>
       </c>
       <c r="E53" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F53" t="s">
-        <v>536</v>
+        <v>271</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>537</v>
+        <v>272</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
@@ -4198,28 +4204,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="E54" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -4227,28 +4233,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>379</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="E55" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -4256,28 +4262,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="E56" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F56" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="I56" t="s">
         <v>16</v>
@@ -4285,28 +4291,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="E57" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F57" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="I57" t="s">
         <v>16</v>
@@ -4314,28 +4320,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
+        <v>233</v>
       </c>
       <c r="E58" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="F58" t="s">
-        <v>512</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>513</v>
+        <v>235</v>
       </c>
       <c r="I58" t="s">
         <v>16</v>
@@ -4343,28 +4349,28 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>531</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>509</v>
+        <v>240</v>
       </c>
       <c r="D59" t="s">
-        <v>510</v>
+        <v>241</v>
       </c>
       <c r="E59" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F59" t="s">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>543</v>
+        <v>243</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
@@ -4372,28 +4378,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>466</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>479</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="E60" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F60" t="s">
-        <v>481</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>482</v>
+        <v>247</v>
       </c>
       <c r="I60" t="s">
         <v>16</v>
@@ -4401,28 +4407,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>509</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
-        <v>510</v>
+        <v>241</v>
       </c>
       <c r="E61" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F61" t="s">
-        <v>481</v>
+        <v>250</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>511</v>
+        <v>251</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
@@ -4430,28 +4436,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="E62" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="I62" t="s">
         <v>16</v>
@@ -4459,54 +4465,57 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="E63" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F63" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>353</v>
+        <v>263</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="E64" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F64" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="I64" t="s">
         <v>16</v>
@@ -4514,28 +4523,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>531</v>
+        <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>509</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>510</v>
+        <v>237</v>
       </c>
       <c r="E65" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F65" t="s">
-        <v>546</v>
+        <v>238</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>547</v>
+        <v>239</v>
       </c>
       <c r="I65" t="s">
         <v>16</v>
@@ -4543,28 +4552,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>375</v>
+        <v>228</v>
       </c>
       <c r="D66" t="s">
-        <v>380</v>
+        <v>229</v>
       </c>
       <c r="E66" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="F66" t="s">
-        <v>515</v>
+        <v>230</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>516</v>
+        <v>231</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -4572,28 +4581,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>379</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="E67" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F67" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="I67" t="s">
         <v>16</v>
@@ -4601,28 +4610,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="E68" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F68" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
@@ -4630,28 +4639,28 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="E69" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F69" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
         <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -4659,28 +4668,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>466</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>479</v>
+        <v>236</v>
       </c>
       <c r="D70" t="s">
-        <v>480</v>
+        <v>237</v>
       </c>
       <c r="E70" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F70" t="s">
-        <v>485</v>
+        <v>260</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>486</v>
+        <v>261</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -4688,28 +4697,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>509</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
-        <v>510</v>
+        <v>237</v>
       </c>
       <c r="E71" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="F71" t="s">
-        <v>485</v>
+        <v>256</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>514</v>
+        <v>257</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -4717,28 +4726,28 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>531</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>509</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="E72" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F72" t="s">
-        <v>550</v>
+        <v>186</v>
       </c>
       <c r="G72" t="s">
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>551</v>
+        <v>187</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
@@ -4746,28 +4755,28 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="D73" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="E73" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F73" t="s">
-        <v>518</v>
+        <v>195</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>519</v>
+        <v>196</v>
       </c>
       <c r="I73" t="s">
         <v>16</v>
@@ -4775,28 +4784,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F74" t="s">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>384</v>
+        <v>200</v>
       </c>
       <c r="I74" t="s">
         <v>16</v>
@@ -4804,28 +4813,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E75" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F75" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>361</v>
+        <v>204</v>
       </c>
       <c r="I75" t="s">
         <v>16</v>
@@ -4833,28 +4842,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E76" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F76" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="I76" t="s">
         <v>16</v>
@@ -4862,28 +4871,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>466</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>479</v>
+        <v>134</v>
       </c>
       <c r="D77" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="E77" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F77" t="s">
-        <v>489</v>
+        <v>211</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>490</v>
+        <v>212</v>
       </c>
       <c r="I77" t="s">
         <v>16</v>
@@ -4891,28 +4900,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>509</v>
+        <v>134</v>
       </c>
       <c r="D78" t="s">
-        <v>510</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F78" t="s">
-        <v>489</v>
+        <v>215</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>517</v>
+        <v>216</v>
       </c>
       <c r="I78" t="s">
         <v>16</v>
@@ -4920,28 +4929,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="D79" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="E79" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F79" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="G79" t="s">
         <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>386</v>
+        <v>220</v>
       </c>
       <c r="I79" t="s">
         <v>16</v>
@@ -4949,28 +4958,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D80" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E80" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F80" t="s">
-        <v>368</v>
+        <v>223</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>369</v>
+        <v>224</v>
       </c>
       <c r="I80" t="s">
         <v>16</v>
@@ -4978,28 +4987,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E81" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F81" t="s">
-        <v>368</v>
+        <v>191</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>369</v>
+        <v>192</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -5007,28 +5016,28 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>531</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>509</v>
+        <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>510</v>
+        <v>19</v>
       </c>
       <c r="E82" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F82" t="s">
-        <v>557</v>
+        <v>182</v>
       </c>
       <c r="G82" t="s">
         <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>558</v>
+        <v>183</v>
       </c>
       <c r="I82" t="s">
         <v>16</v>
@@ -5036,28 +5045,28 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>531</v>
+        <v>181</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>509</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
-        <v>510</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F83" t="s">
-        <v>554</v>
+        <v>197</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>555</v>
+        <v>198</v>
       </c>
       <c r="I83" t="s">
         <v>16</v>
@@ -5065,28 +5074,28 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="E84" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F84" t="s">
-        <v>521</v>
+        <v>201</v>
       </c>
       <c r="G84" t="s">
         <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>522</v>
+        <v>202</v>
       </c>
       <c r="I84" t="s">
         <v>16</v>
@@ -5094,28 +5103,28 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>387</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="E85" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F85" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="G85" t="s">
         <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="I85" t="s">
         <v>16</v>
@@ -5123,28 +5132,28 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="E86" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F86" t="s">
-        <v>364</v>
+        <v>205</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>385</v>
+        <v>206</v>
       </c>
       <c r="I86" t="s">
         <v>16</v>
@@ -5152,28 +5161,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F87" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="G87" t="s">
         <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="I87" t="s">
         <v>16</v>
@@ -5181,28 +5190,28 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F88" t="s">
-        <v>364</v>
+        <v>213</v>
       </c>
       <c r="G88" t="s">
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>365</v>
+        <v>214</v>
       </c>
       <c r="I88" t="s">
         <v>16</v>
@@ -5210,28 +5219,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F89" t="s">
-        <v>364</v>
+        <v>217</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="I89" t="s">
         <v>16</v>
@@ -5239,28 +5248,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>466</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>479</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F90" t="s">
-        <v>493</v>
+        <v>221</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>494</v>
+        <v>222</v>
       </c>
       <c r="I90" t="s">
         <v>16</v>
@@ -5268,28 +5277,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>509</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>510</v>
+        <v>12</v>
       </c>
       <c r="E91" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F91" t="s">
-        <v>493</v>
+        <v>225</v>
       </c>
       <c r="G91" t="s">
         <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>520</v>
+        <v>226</v>
       </c>
       <c r="I91" t="s">
         <v>16</v>
@@ -5297,28 +5306,28 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>527</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>528</v>
+        <v>12</v>
       </c>
       <c r="E92" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F92" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>530</v>
+        <v>194</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -5326,28 +5335,28 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F93" t="s">
-        <v>524</v>
+        <v>184</v>
       </c>
       <c r="G93" t="s">
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>525</v>
+        <v>185</v>
       </c>
       <c r="I93" t="s">
         <v>16</v>
@@ -5355,86 +5364,80 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>466</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>479</v>
+        <v>137</v>
       </c>
       <c r="D94" t="s">
-        <v>480</v>
+        <v>138</v>
       </c>
       <c r="E94" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="F94" t="s">
-        <v>501</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>502</v>
-      </c>
-      <c r="I94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>509</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>510</v>
+        <v>140</v>
       </c>
       <c r="E95" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="F95" t="s">
-        <v>501</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>526</v>
-      </c>
-      <c r="I95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>466</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>479</v>
+        <v>142</v>
       </c>
       <c r="D96" t="s">
-        <v>480</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F96" t="s">
-        <v>497</v>
+        <v>143</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>498</v>
+        <v>144</v>
       </c>
       <c r="I96" t="s">
         <v>16</v>
@@ -5442,28 +5445,28 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D97" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E97" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F97" t="s">
-        <v>396</v>
+        <v>151</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>397</v>
+        <v>152</v>
       </c>
       <c r="I97" t="s">
         <v>16</v>
@@ -5471,28 +5474,28 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>509</v>
+        <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>510</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F98" t="s">
-        <v>497</v>
+        <v>155</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>523</v>
+        <v>156</v>
       </c>
       <c r="I98" t="s">
         <v>16</v>
@@ -5500,28 +5503,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C99" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E99" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F99" t="s">
-        <v>400</v>
+        <v>159</v>
       </c>
       <c r="G99" t="s">
         <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
@@ -5529,28 +5532,28 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="D100" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="E100" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F100" t="s">
-        <v>507</v>
+        <v>163</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>508</v>
+        <v>164</v>
       </c>
       <c r="I100" t="s">
         <v>16</v>
@@ -5558,28 +5561,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E101" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F101" t="s">
-        <v>404</v>
+        <v>167</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>405</v>
+        <v>168</v>
       </c>
       <c r="I101" t="s">
         <v>16</v>
@@ -5587,28 +5590,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D102" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E102" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F102" t="s">
-        <v>412</v>
+        <v>171</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>413</v>
+        <v>172</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -5616,28 +5619,28 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="D103" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E103" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F103" t="s">
-        <v>408</v>
+        <v>175</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>409</v>
+        <v>176</v>
       </c>
       <c r="I103" t="s">
         <v>16</v>
@@ -5645,28 +5648,28 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E104" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F104" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="I104" t="s">
         <v>16</v>
@@ -5674,28 +5677,28 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E105" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F105" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="I105" t="s">
         <v>16</v>
@@ -5703,28 +5706,28 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E106" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="I106" t="s">
         <v>16</v>
@@ -5732,28 +5735,28 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E107" s="1">
         <v>0.81120000000000003</v>
       </c>
       <c r="F107" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="I107" t="s">
         <v>16</v>
@@ -5761,10 +5764,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
         <v>131</v>
@@ -5776,13 +5779,13 @@
         <v>0.81120000000000003</v>
       </c>
       <c r="F108" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="I108" t="s">
         <v>16</v>
@@ -5790,28 +5793,28 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="I109" t="s">
         <v>16</v>
@@ -5819,10 +5822,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
         <v>131</v>
@@ -5834,13 +5837,13 @@
         <v>0.81120000000000003</v>
       </c>
       <c r="F110" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G110" t="s">
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="I110" t="s">
         <v>16</v>
@@ -5848,28 +5851,28 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E111" s="1">
-        <v>0.81389999999999996</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F111" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="G111" t="s">
         <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="I111" t="s">
         <v>16</v>
@@ -5877,28 +5880,28 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F112" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="G112" t="s">
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="I112" t="s">
         <v>16</v>
@@ -5906,10 +5909,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C113" t="s">
         <v>131</v>
@@ -5921,13 +5924,13 @@
         <v>0.81120000000000003</v>
       </c>
       <c r="F113" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="I113" t="s">
         <v>16</v>
@@ -5935,28 +5938,28 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F114" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="G114" t="s">
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="I114" t="s">
         <v>16</v>
@@ -5964,10 +5967,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
         <v>131</v>
@@ -5979,13 +5982,13 @@
         <v>0.81120000000000003</v>
       </c>
       <c r="F115" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="I115" t="s">
         <v>16</v>
@@ -5993,28 +5996,28 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
       </c>
       <c r="E116" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="F116" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I116" t="s">
         <v>16</v>
@@ -6022,28 +6025,28 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E117" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="G117" t="s">
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="I117" t="s">
         <v>16</v>
@@ -6051,28 +6054,28 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E118" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F118" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="I118" t="s">
         <v>16</v>
@@ -6083,25 +6086,25 @@
         <v>86</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E119" s="1">
         <v>0.81399999999999995</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I119" t="s">
         <v>16</v>
@@ -6109,28 +6112,28 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E120" s="1">
         <v>0.81399999999999995</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="I120" t="s">
         <v>16</v>
@@ -6138,28 +6141,28 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E121" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="G121" t="s">
         <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="I121" t="s">
         <v>16</v>
@@ -6167,28 +6170,28 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E122" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F122" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="I122" t="s">
         <v>16</v>
@@ -6199,25 +6202,25 @@
         <v>86</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E123" s="1">
         <v>0.81399999999999995</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I123" t="s">
         <v>16</v>
@@ -6225,28 +6228,28 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E124" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F124" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="I124" t="s">
         <v>16</v>
@@ -6254,28 +6257,28 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E125" s="1">
-        <v>0.81389999999999996</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G125" t="s">
         <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I125" t="s">
         <v>16</v>
@@ -6283,28 +6286,28 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>531</v>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>538</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>539</v>
+        <v>19</v>
       </c>
       <c r="E126" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F126" t="s">
-        <v>540</v>
+        <v>94</v>
       </c>
       <c r="G126" t="s">
         <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>541</v>
+        <v>95</v>
       </c>
       <c r="I126" t="s">
         <v>16</v>
@@ -6312,28 +6315,28 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E127" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F127" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="I127" t="s">
         <v>16</v>
@@ -6341,28 +6344,28 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F128" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="G128" t="s">
         <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="I128" t="s">
         <v>16</v>
@@ -6373,7 +6376,7 @@
         <v>86</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -6385,13 +6388,13 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="F129" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="I129" t="s">
         <v>16</v>
@@ -6399,28 +6402,28 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E130" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.81389999999999996</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="I130" t="s">
         <v>16</v>
@@ -6431,7 +6434,7 @@
         <v>86</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -6443,13 +6446,13 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="F131" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G131" t="s">
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I131" t="s">
         <v>16</v>
@@ -6457,28 +6460,28 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B132" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F132" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I132" t="s">
         <v>16</v>
@@ -6486,28 +6489,28 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C133" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="E133" s="1">
-        <v>0.86960000000000004</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F133" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="I133" t="s">
         <v>16</v>
@@ -6515,28 +6518,28 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="E134" s="1">
-        <v>0.86960000000000004</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F134" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="G134" t="s">
         <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="I134" t="s">
         <v>16</v>
@@ -6547,7 +6550,7 @@
         <v>86</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -6559,13 +6562,13 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="F135" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="I135" t="s">
         <v>16</v>
@@ -6573,28 +6576,28 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>531</v>
+        <v>86</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C136" t="s">
-        <v>538</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>539</v>
+        <v>12</v>
       </c>
       <c r="E136" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F136" t="s">
-        <v>544</v>
+        <v>128</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>545</v>
+        <v>129</v>
       </c>
       <c r="I136" t="s">
         <v>16</v>
@@ -6602,10 +6605,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
@@ -6617,13 +6620,13 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="F137" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="G137" t="s">
         <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I137" t="s">
         <v>16</v>
@@ -6631,28 +6634,28 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>531</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>467</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>468</v>
+        <v>12</v>
       </c>
       <c r="E138" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F138" t="s">
-        <v>534</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s">
         <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>535</v>
+        <v>89</v>
       </c>
       <c r="I138" t="s">
         <v>16</v>
@@ -6660,28 +6663,28 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E139" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F139" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="I139" t="s">
         <v>16</v>
@@ -6692,25 +6695,25 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1">
         <v>0.81399999999999995</v>
       </c>
       <c r="F140" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -6718,28 +6721,28 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>531</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>538</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>539</v>
+        <v>19</v>
       </c>
       <c r="E141" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F141" t="s">
-        <v>548</v>
+        <v>48</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>549</v>
+        <v>49</v>
       </c>
       <c r="I141" t="s">
         <v>16</v>
@@ -6747,28 +6750,28 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E142" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F142" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="I142" t="s">
         <v>16</v>
@@ -6779,25 +6782,25 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E143" s="1">
         <v>0.81399999999999995</v>
       </c>
       <c r="F143" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G143" t="s">
         <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I143" t="s">
         <v>16</v>
@@ -6805,28 +6808,28 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>416</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C144" t="s">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="E144" s="1">
-        <v>0.87</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F144" t="s">
-        <v>421</v>
+        <v>66</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>422</v>
+        <v>67</v>
       </c>
       <c r="I144" t="s">
         <v>16</v>
@@ -6834,28 +6837,28 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>448</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C145" t="s">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="E145" s="1">
-        <v>0.87</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F145" t="s">
-        <v>421</v>
+        <v>72</v>
       </c>
       <c r="G145" t="s">
         <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>422</v>
+        <v>73</v>
       </c>
       <c r="I145" t="s">
         <v>16</v>
@@ -6863,28 +6866,28 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>451</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C146" t="s">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="E146" s="1">
-        <v>0.87</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F146" t="s">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="G146" t="s">
         <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="I146" t="s">
         <v>16</v>
@@ -6892,28 +6895,28 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>531</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>538</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>539</v>
+        <v>19</v>
       </c>
       <c r="E147" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F147" t="s">
-        <v>552</v>
+        <v>84</v>
       </c>
       <c r="G147" t="s">
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>553</v>
+        <v>85</v>
       </c>
       <c r="I147" t="s">
         <v>16</v>
@@ -6921,28 +6924,28 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E148" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F148" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
         <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="I148" t="s">
         <v>16</v>
@@ -6953,25 +6956,25 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E149" s="1">
         <v>0.81399999999999995</v>
       </c>
       <c r="F149" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G149" t="s">
         <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I149" t="s">
         <v>16</v>
@@ -6979,28 +6982,28 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>531</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>538</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>539</v>
+        <v>12</v>
       </c>
       <c r="E150" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F150" t="s">
-        <v>559</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>560</v>
+        <v>40</v>
       </c>
       <c r="I150" t="s">
         <v>16</v>
@@ -7008,28 +7011,28 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>531</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
-        <v>538</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>539</v>
+        <v>24</v>
       </c>
       <c r="E151" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81389999999999996</v>
       </c>
       <c r="F151" t="s">
-        <v>388</v>
+        <v>25</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>556</v>
+        <v>26</v>
       </c>
       <c r="I151" t="s">
         <v>16</v>
@@ -7037,28 +7040,28 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>466</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C152" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>476</v>
+        <v>12</v>
       </c>
       <c r="E152" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F152" t="s">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
         <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>478</v>
+        <v>46</v>
       </c>
       <c r="I152" t="s">
         <v>16</v>
@@ -7066,28 +7069,28 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C153" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="E153" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>51</v>
       </c>
       <c r="G153" t="s">
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="I153" t="s">
         <v>16</v>
@@ -7095,28 +7098,28 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>317</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C154" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="E154" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="G154" t="s">
         <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>316</v>
+        <v>58</v>
       </c>
       <c r="I154" t="s">
         <v>16</v>
@@ -7124,28 +7127,28 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>466</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C155" t="s">
-        <v>467</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>468</v>
+        <v>12</v>
       </c>
       <c r="E155" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F155" t="s">
-        <v>469</v>
+        <v>63</v>
       </c>
       <c r="G155" t="s">
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>470</v>
+        <v>64</v>
       </c>
       <c r="I155" t="s">
         <v>16</v>
@@ -7153,28 +7156,28 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C156" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="E156" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F156" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>289</v>
+        <v>70</v>
       </c>
       <c r="I156" t="s">
         <v>16</v>
@@ -7211,28 +7214,28 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>387</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C158" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="E158" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F158" t="s">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="G158" t="s">
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="I158" t="s">
         <v>16</v>
@@ -7240,28 +7243,28 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F159" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="I159" t="s">
         <v>16</v>
@@ -7269,28 +7272,28 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>466</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>476</v>
+        <v>12</v>
       </c>
       <c r="E160" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F160" t="s">
-        <v>483</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>484</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
         <v>16</v>
@@ -7298,28 +7301,28 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>130</v>
+        <v>531</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="E161" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F161" t="s">
-        <v>145</v>
+        <v>532</v>
       </c>
       <c r="G161" t="s">
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>146</v>
+        <v>533</v>
       </c>
       <c r="I161" t="s">
         <v>16</v>
@@ -7327,28 +7330,28 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>130</v>
+        <v>531</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>131</v>
+        <v>509</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="E162" s="1">
-        <v>0.81120000000000003</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F162" t="s">
-        <v>132</v>
+        <v>536</v>
       </c>
       <c r="G162" t="s">
         <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
       <c r="I162" t="s">
         <v>16</v>
@@ -7356,28 +7359,28 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="E163" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F163" t="s">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="G163" t="s">
         <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="I163" t="s">
         <v>16</v>
@@ -7385,28 +7388,28 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>387</v>
+        <v>531</v>
       </c>
       <c r="B164" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>342</v>
+        <v>509</v>
       </c>
       <c r="D164" t="s">
-        <v>343</v>
+        <v>510</v>
       </c>
       <c r="E164" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F164" t="s">
-        <v>398</v>
+        <v>546</v>
       </c>
       <c r="G164" t="s">
         <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>399</v>
+        <v>547</v>
       </c>
       <c r="I164" t="s">
         <v>16</v>
@@ -7414,28 +7417,28 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>387</v>
+        <v>531</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>509</v>
       </c>
       <c r="D165" t="s">
-        <v>335</v>
+        <v>510</v>
       </c>
       <c r="E165" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F165" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="G165" t="s">
         <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>391</v>
+        <v>551</v>
       </c>
       <c r="I165" t="s">
         <v>16</v>
@@ -7443,28 +7446,28 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="B166" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C166" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="D166" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="E166" s="1">
         <v>0.83489999999999998</v>
       </c>
       <c r="F166" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="G166" t="s">
         <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="I166" t="s">
         <v>16</v>
@@ -7472,28 +7475,28 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="E167" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>554</v>
       </c>
       <c r="G167" t="s">
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>34</v>
+        <v>555</v>
       </c>
       <c r="I167" t="s">
         <v>16</v>
@@ -7501,28 +7504,28 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>538</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>539</v>
       </c>
       <c r="E168" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>540</v>
       </c>
       <c r="G168" t="s">
         <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>15</v>
+        <v>541</v>
       </c>
       <c r="I168" t="s">
         <v>16</v>
@@ -7530,28 +7533,28 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>387</v>
+        <v>531</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C169" t="s">
-        <v>342</v>
+        <v>538</v>
       </c>
       <c r="D169" t="s">
-        <v>343</v>
+        <v>539</v>
       </c>
       <c r="E169" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F169" t="s">
-        <v>402</v>
+        <v>544</v>
       </c>
       <c r="G169" t="s">
         <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
       <c r="I169" t="s">
         <v>16</v>
@@ -7559,28 +7562,28 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D170" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E170" s="1">
         <v>0.83489999999999998</v>
       </c>
       <c r="F170" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="G170" t="s">
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="I170" t="s">
         <v>16</v>
@@ -7588,28 +7591,28 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
       <c r="B171" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C171" t="s">
-        <v>425</v>
+        <v>538</v>
       </c>
       <c r="D171" t="s">
-        <v>241</v>
+        <v>539</v>
       </c>
       <c r="E171" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F171" t="s">
-        <v>426</v>
+        <v>548</v>
       </c>
       <c r="G171" t="s">
         <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="I171" t="s">
         <v>16</v>
@@ -7617,28 +7620,28 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C172" t="s">
-        <v>425</v>
+        <v>538</v>
       </c>
       <c r="D172" t="s">
-        <v>241</v>
+        <v>539</v>
       </c>
       <c r="E172" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F172" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="G172" t="s">
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>427</v>
+        <v>553</v>
       </c>
       <c r="I172" t="s">
         <v>16</v>
@@ -7646,28 +7649,28 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C173" t="s">
-        <v>425</v>
+        <v>538</v>
       </c>
       <c r="D173" t="s">
-        <v>241</v>
+        <v>539</v>
       </c>
       <c r="E173" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F173" t="s">
-        <v>426</v>
+        <v>559</v>
       </c>
       <c r="G173" t="s">
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>427</v>
+        <v>560</v>
       </c>
       <c r="I173" t="s">
         <v>16</v>
@@ -7675,28 +7678,28 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>451</v>
+        <v>531</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C174" t="s">
-        <v>425</v>
+        <v>538</v>
       </c>
       <c r="D174" t="s">
-        <v>241</v>
+        <v>539</v>
       </c>
       <c r="E174" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F174" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="G174" t="s">
         <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>427</v>
+        <v>556</v>
       </c>
       <c r="I174" t="s">
         <v>16</v>
@@ -7704,28 +7707,28 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="B175" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>342</v>
+        <v>504</v>
       </c>
       <c r="D175" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="E175" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F175" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="G175" t="s">
         <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="I175" t="s">
         <v>16</v>
@@ -7733,28 +7736,28 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="B176" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="D176" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="E176" s="1">
-        <v>0.83489999999999998</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F176" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="I176" t="s">
         <v>16</v>
@@ -7762,28 +7765,28 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="D177" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="E177" s="1">
         <v>0.83489999999999998</v>
       </c>
       <c r="F177" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="G177" t="s">
         <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="I177" t="s">
         <v>16</v>
@@ -7791,28 +7794,28 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="B178" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C178" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="D178" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="E178" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F178" t="s">
-        <v>414</v>
+        <v>515</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>415</v>
+        <v>516</v>
       </c>
       <c r="I178" t="s">
         <v>16</v>
@@ -7820,28 +7823,28 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>416</v>
+        <v>503</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="D179" t="s">
-        <v>241</v>
+        <v>510</v>
       </c>
       <c r="E179" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F179" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="G179" t="s">
         <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="I179" t="s">
         <v>16</v>
@@ -7849,28 +7852,28 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C180" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="D180" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="E180" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F180" t="s">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="G180" t="s">
         <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>431</v>
+        <v>519</v>
       </c>
       <c r="I180" t="s">
         <v>16</v>
@@ -7878,28 +7881,28 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="B181" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C181" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="D181" t="s">
-        <v>241</v>
+        <v>510</v>
       </c>
       <c r="E181" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F181" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="G181" t="s">
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
       <c r="I181" t="s">
         <v>16</v>
@@ -7907,28 +7910,28 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="B182" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C182" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="D182" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="E182" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F182" t="s">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="G182" t="s">
         <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
       <c r="I182" t="s">
         <v>16</v>
@@ -7936,28 +7939,28 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="B183" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C183" t="s">
-        <v>342</v>
+        <v>509</v>
       </c>
       <c r="D183" t="s">
-        <v>343</v>
+        <v>510</v>
       </c>
       <c r="E183" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F183" t="s">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="G183" t="s">
         <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>411</v>
+        <v>520</v>
       </c>
       <c r="I183" t="s">
         <v>16</v>
@@ -7965,28 +7968,28 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>333</v>
+        <v>503</v>
       </c>
       <c r="B184" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C184" t="s">
-        <v>342</v>
+        <v>527</v>
       </c>
       <c r="D184" t="s">
-        <v>343</v>
+        <v>528</v>
       </c>
       <c r="E184" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F184" t="s">
-        <v>344</v>
+        <v>529</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>345</v>
+        <v>530</v>
       </c>
       <c r="I184" t="s">
         <v>16</v>
@@ -7994,28 +7997,28 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>281</v>
+        <v>503</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="D185" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="E185" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F185" t="s">
-        <v>242</v>
+        <v>524</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>293</v>
+        <v>525</v>
       </c>
       <c r="I185" t="s">
         <v>16</v>
@@ -8023,28 +8026,28 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>309</v>
+        <v>503</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C186" t="s">
-        <v>292</v>
+        <v>509</v>
       </c>
       <c r="D186" t="s">
-        <v>241</v>
+        <v>510</v>
       </c>
       <c r="E186" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F186" t="s">
-        <v>242</v>
+        <v>501</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>293</v>
+        <v>526</v>
       </c>
       <c r="I186" t="s">
         <v>16</v>
@@ -8052,28 +8055,28 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>309</v>
+        <v>503</v>
       </c>
       <c r="B187" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C187" t="s">
-        <v>292</v>
+        <v>509</v>
       </c>
       <c r="D187" t="s">
-        <v>241</v>
+        <v>510</v>
       </c>
       <c r="E187" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F187" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="G187" t="s">
         <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>293</v>
+        <v>523</v>
       </c>
       <c r="I187" t="s">
         <v>16</v>
@@ -8081,28 +8084,28 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="B188" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C188" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="E188" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F188" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>293</v>
+        <v>508</v>
       </c>
       <c r="I188" t="s">
         <v>16</v>
@@ -8110,28 +8113,28 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>333</v>
+        <v>466</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>334</v>
+        <v>471</v>
       </c>
       <c r="D189" t="s">
-        <v>335</v>
+        <v>472</v>
       </c>
       <c r="E189" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="F189" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="G189" t="s">
         <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="I189" t="s">
         <v>16</v>
@@ -8139,28 +8142,28 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>227</v>
+        <v>466</v>
       </c>
       <c r="B190" t="s">
         <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>240</v>
+        <v>479</v>
       </c>
       <c r="D190" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="E190" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F190" t="s">
-        <v>242</v>
+        <v>481</v>
       </c>
       <c r="G190" t="s">
         <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>243</v>
+        <v>482</v>
       </c>
       <c r="I190" t="s">
         <v>16</v>
@@ -8168,28 +8171,28 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>264</v>
+        <v>466</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C191" t="s">
-        <v>240</v>
+        <v>479</v>
       </c>
       <c r="D191" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="E191" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F191" t="s">
-        <v>242</v>
+        <v>485</v>
       </c>
       <c r="G191" t="s">
         <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="I191" t="s">
         <v>16</v>
@@ -8197,28 +8200,28 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C192" t="s">
-        <v>240</v>
+        <v>479</v>
       </c>
       <c r="D192" t="s">
-        <v>311</v>
+        <v>480</v>
       </c>
       <c r="E192" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F192" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="G192" t="s">
         <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="I192" t="s">
         <v>16</v>
@@ -8226,28 +8229,28 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C193" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="D193" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="E193" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F193" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="G193" t="s">
         <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="I193" t="s">
         <v>16</v>
@@ -8255,28 +8258,28 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="B194" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C194" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="D194" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="E194" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F194" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="I194" t="s">
         <v>16</v>
@@ -8284,28 +8287,28 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C195" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="D195" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="E195" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F195" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="I195" t="s">
         <v>16</v>
@@ -8313,28 +8316,28 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B196" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="D196" t="s">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="E196" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F196" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="G196" t="s">
         <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="I196" t="s">
         <v>16</v>
@@ -8342,54 +8345,57 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>333</v>
+        <v>466</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C197" t="s">
-        <v>342</v>
+        <v>467</v>
       </c>
       <c r="D197" t="s">
-        <v>343</v>
+        <v>468</v>
       </c>
       <c r="E197" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F197" t="s">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>351</v>
+        <v>470</v>
+      </c>
+      <c r="I197" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>281</v>
+        <v>466</v>
       </c>
       <c r="B198" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C198" t="s">
-        <v>292</v>
+        <v>475</v>
       </c>
       <c r="D198" t="s">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="E198" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F198" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>296</v>
+        <v>484</v>
       </c>
       <c r="I198" t="s">
         <v>16</v>
@@ -8397,28 +8403,28 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C199" t="s">
-        <v>292</v>
+        <v>475</v>
       </c>
       <c r="D199" t="s">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="E199" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F199" t="s">
-        <v>246</v>
+        <v>487</v>
       </c>
       <c r="G199" t="s">
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="I199" t="s">
         <v>16</v>
@@ -8426,28 +8432,28 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C200" t="s">
-        <v>292</v>
+        <v>475</v>
       </c>
       <c r="D200" t="s">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="E200" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F200" t="s">
-        <v>246</v>
+        <v>491</v>
       </c>
       <c r="G200" t="s">
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
       <c r="I200" t="s">
         <v>16</v>
@@ -8455,28 +8461,28 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="B201" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C201" t="s">
-        <v>292</v>
+        <v>475</v>
       </c>
       <c r="D201" t="s">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="E201" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F201" t="s">
-        <v>246</v>
+        <v>499</v>
       </c>
       <c r="G201" t="s">
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>296</v>
+        <v>500</v>
       </c>
       <c r="I201" t="s">
         <v>16</v>
@@ -8484,28 +8490,28 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>466</v>
       </c>
       <c r="B202" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
-        <v>240</v>
+        <v>475</v>
       </c>
       <c r="D202" t="s">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="E202" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="F202" t="s">
-        <v>246</v>
+        <v>495</v>
       </c>
       <c r="G202" t="s">
         <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>247</v>
+        <v>496</v>
       </c>
       <c r="I202" t="s">
         <v>16</v>
@@ -8513,28 +8519,28 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="B203" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C203" t="s">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="D203" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="E203" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="F203" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>247</v>
+        <v>422</v>
       </c>
       <c r="I203" t="s">
         <v>16</v>
@@ -8542,10 +8548,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B204" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C204" t="s">
         <v>425</v>
@@ -8557,13 +8563,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F204" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G204" t="s">
         <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="I204" t="s">
         <v>16</v>
@@ -8571,10 +8577,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B205" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C205" t="s">
         <v>425</v>
@@ -8586,13 +8592,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F205" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G205" t="s">
         <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I205" t="s">
         <v>16</v>
@@ -8600,10 +8606,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B206" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C206" t="s">
         <v>425</v>
@@ -8615,13 +8621,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F206" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G206" t="s">
         <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I206" t="s">
         <v>16</v>
@@ -8658,28 +8664,28 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>309</v>
+        <v>451</v>
       </c>
       <c r="B208" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C208" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="E208" s="1">
         <v>0.86990000000000001</v>
       </c>
       <c r="F208" t="s">
-        <v>312</v>
+        <v>446</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>313</v>
+        <v>447</v>
       </c>
       <c r="I208" t="s">
         <v>16</v>
@@ -8687,28 +8693,28 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>333</v>
+        <v>451</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C209" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="D209" t="s">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="E209" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F209" t="s">
-        <v>354</v>
+        <v>442</v>
       </c>
       <c r="G209" t="s">
         <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="I209" t="s">
         <v>16</v>
@@ -8716,28 +8722,28 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>281</v>
+        <v>451</v>
       </c>
       <c r="B210" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C210" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D210" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E210" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F210" t="s">
-        <v>250</v>
+        <v>454</v>
       </c>
       <c r="G210" t="s">
         <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="I210" t="s">
         <v>16</v>
@@ -8745,28 +8751,28 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>309</v>
+        <v>451</v>
       </c>
       <c r="B211" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D211" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E211" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F211" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="G211" t="s">
         <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="I211" t="s">
         <v>16</v>
@@ -8774,28 +8780,28 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>309</v>
+        <v>451</v>
       </c>
       <c r="B212" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D212" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E212" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F212" t="s">
-        <v>250</v>
+        <v>452</v>
       </c>
       <c r="G212" t="s">
         <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>299</v>
+        <v>453</v>
       </c>
       <c r="I212" t="s">
         <v>16</v>
@@ -8803,28 +8809,28 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="B213" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C213" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D213" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E213" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F213" t="s">
-        <v>250</v>
+        <v>458</v>
       </c>
       <c r="G213" t="s">
         <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>299</v>
+        <v>459</v>
       </c>
       <c r="I213" t="s">
         <v>16</v>
@@ -8832,28 +8838,28 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>451</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C214" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D214" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E214" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="F214" t="s">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="G214" t="s">
         <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>461</v>
       </c>
       <c r="I214" t="s">
         <v>16</v>
@@ -8861,28 +8867,28 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="B215" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C215" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D215" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E215" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="F215" t="s">
-        <v>250</v>
+        <v>464</v>
       </c>
       <c r="G215" t="s">
         <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>251</v>
+        <v>465</v>
       </c>
       <c r="I215" t="s">
         <v>16</v>
@@ -8890,28 +8896,28 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B216" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C216" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D216" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E216" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F216" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="G216" t="s">
         <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="I216" t="s">
         <v>16</v>
@@ -8922,25 +8928,25 @@
         <v>448</v>
       </c>
       <c r="B217" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C217" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D217" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="E217" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F217" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="G217" t="s">
         <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="I217" t="s">
         <v>16</v>
@@ -8951,7 +8957,7 @@
         <v>448</v>
       </c>
       <c r="B218" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C218" t="s">
         <v>425</v>
@@ -8963,13 +8969,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F218" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="G218" t="s">
         <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="I218" t="s">
         <v>16</v>
@@ -8977,10 +8983,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B219" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C219" t="s">
         <v>425</v>
@@ -8992,13 +8998,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F219" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="G219" t="s">
         <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="I219" t="s">
         <v>16</v>
@@ -9006,10 +9012,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B220" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C220" t="s">
         <v>425</v>
@@ -9021,13 +9027,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F220" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G220" t="s">
         <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="I220" t="s">
         <v>16</v>
@@ -9038,7 +9044,7 @@
         <v>448</v>
       </c>
       <c r="B221" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C221" t="s">
         <v>425</v>
@@ -9050,13 +9056,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G221" t="s">
         <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="I221" t="s">
         <v>16</v>
@@ -9067,25 +9073,25 @@
         <v>448</v>
       </c>
       <c r="B222" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C222" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="D222" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="E222" s="1">
         <v>0.86990000000000001</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G222" t="s">
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="I222" t="s">
         <v>16</v>
@@ -9093,10 +9099,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C223" t="s">
         <v>425</v>
@@ -9108,13 +9114,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G223" t="s">
         <v>14</v>
       </c>
       <c r="H223" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I223" t="s">
         <v>16</v>
@@ -9122,28 +9128,28 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="B224" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C224" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="D224" t="s">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="E224" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F224" t="s">
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="G224" t="s">
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>359</v>
+        <v>435</v>
       </c>
       <c r="I224" t="s">
         <v>16</v>
@@ -9151,28 +9157,28 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="B225" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C225" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="D225" t="s">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="E225" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F225" t="s">
-        <v>366</v>
+        <v>438</v>
       </c>
       <c r="G225" t="s">
         <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
       <c r="I225" t="s">
         <v>16</v>
@@ -9180,13 +9186,13 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>281</v>
+        <v>448</v>
       </c>
       <c r="B226" t="s">
         <v>59</v>
       </c>
       <c r="C226" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D226" t="s">
         <v>241</v>
@@ -9195,13 +9201,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F226" t="s">
-        <v>254</v>
+        <v>438</v>
       </c>
       <c r="G226" t="s">
         <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="I226" t="s">
         <v>16</v>
@@ -9209,13 +9215,13 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C227" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D227" t="s">
         <v>241</v>
@@ -9224,13 +9230,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F227" t="s">
-        <v>254</v>
+        <v>446</v>
       </c>
       <c r="G227" t="s">
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
       <c r="I227" t="s">
         <v>16</v>
@@ -9238,13 +9244,13 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>309</v>
+        <v>448</v>
       </c>
       <c r="B228" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C228" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D228" t="s">
         <v>241</v>
@@ -9253,13 +9259,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F228" t="s">
-        <v>254</v>
+        <v>446</v>
       </c>
       <c r="G228" t="s">
         <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
       <c r="I228" t="s">
         <v>16</v>
@@ -9267,13 +9273,13 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="B229" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C229" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D229" t="s">
         <v>241</v>
@@ -9282,13 +9288,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F229" t="s">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="G229" t="s">
         <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="I229" t="s">
         <v>16</v>
@@ -9296,28 +9302,28 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>448</v>
       </c>
       <c r="B230" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C230" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="D230" t="s">
         <v>241</v>
       </c>
       <c r="E230" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F230" t="s">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="G230" t="s">
         <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>443</v>
       </c>
       <c r="I230" t="s">
         <v>16</v>
@@ -9325,28 +9331,28 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="B231" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C231" t="s">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="D231" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="E231" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="F231" t="s">
-        <v>254</v>
+        <v>421</v>
       </c>
       <c r="G231" t="s">
         <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="I231" t="s">
         <v>16</v>
@@ -9354,28 +9360,28 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="B232" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C232" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="D232" t="s">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="E232" s="1">
-        <v>0.83689999999999998</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F232" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="G232" t="s">
         <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="I232" t="s">
         <v>16</v>
@@ -9383,13 +9389,13 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="B233" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C233" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D233" t="s">
         <v>241</v>
@@ -9398,13 +9404,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F233" t="s">
-        <v>262</v>
+        <v>430</v>
       </c>
       <c r="G233" t="s">
         <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="I233" t="s">
         <v>16</v>
@@ -9412,13 +9418,13 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="B234" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C234" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D234" t="s">
         <v>241</v>
@@ -9427,13 +9433,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F234" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
       <c r="G234" t="s">
         <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>308</v>
+        <v>435</v>
       </c>
       <c r="I234" t="s">
         <v>16</v>
@@ -9441,13 +9447,13 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="B235" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C235" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D235" t="s">
         <v>241</v>
@@ -9456,13 +9462,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F235" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="G235" t="s">
         <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>308</v>
+        <v>439</v>
       </c>
       <c r="I235" t="s">
         <v>16</v>
@@ -9470,13 +9476,13 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="B236" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C236" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="D236" t="s">
         <v>241</v>
@@ -9485,13 +9491,13 @@
         <v>0.86990000000000001</v>
       </c>
       <c r="F236" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="G236" t="s">
         <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>308</v>
+        <v>447</v>
       </c>
       <c r="I236" t="s">
         <v>16</v>
@@ -9499,28 +9505,28 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>227</v>
+        <v>416</v>
       </c>
       <c r="B237" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C237" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="D237" t="s">
         <v>241</v>
       </c>
       <c r="E237" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="F237" t="s">
-        <v>262</v>
+        <v>442</v>
       </c>
       <c r="G237" t="s">
         <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>263</v>
+        <v>443</v>
       </c>
       <c r="I237" t="s">
         <v>16</v>
@@ -9528,28 +9534,28 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="B238" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D238" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E238" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="F238" t="s">
-        <v>262</v>
+        <v>423</v>
       </c>
       <c r="G238" t="s">
         <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>424</v>
       </c>
       <c r="I238" t="s">
         <v>16</v>
@@ -9557,28 +9563,28 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="B239" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C239" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D239" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E239" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F239" t="s">
-        <v>258</v>
+        <v>428</v>
       </c>
       <c r="G239" t="s">
         <v>14</v>
       </c>
       <c r="H239" t="s">
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="I239" t="s">
         <v>16</v>
@@ -9586,28 +9592,28 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="B240" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C240" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D240" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E240" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F240" t="s">
-        <v>258</v>
+        <v>418</v>
       </c>
       <c r="G240" t="s">
         <v>14</v>
       </c>
       <c r="H240" t="s">
-        <v>305</v>
+        <v>419</v>
       </c>
       <c r="I240" t="s">
         <v>16</v>
@@ -9615,28 +9621,28 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C241" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D241" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E241" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F241" t="s">
-        <v>258</v>
+        <v>432</v>
       </c>
       <c r="G241" t="s">
         <v>14</v>
       </c>
       <c r="H241" t="s">
-        <v>305</v>
+        <v>433</v>
       </c>
       <c r="I241" t="s">
         <v>16</v>
@@ -9644,28 +9650,28 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="B242" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C242" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D242" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E242" s="1">
-        <v>0.86990000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F242" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
       <c r="G242" t="s">
         <v>14</v>
       </c>
       <c r="H242" t="s">
-        <v>305</v>
+        <v>437</v>
       </c>
       <c r="I242" t="s">
         <v>16</v>
@@ -9673,28 +9679,28 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>227</v>
+        <v>416</v>
       </c>
       <c r="B243" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C243" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D243" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E243" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="F243" t="s">
-        <v>258</v>
+        <v>444</v>
       </c>
       <c r="G243" t="s">
         <v>14</v>
       </c>
       <c r="H243" t="s">
-        <v>259</v>
+        <v>445</v>
       </c>
       <c r="I243" t="s">
         <v>16</v>
@@ -9702,28 +9708,28 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="B244" t="s">
         <v>62</v>
       </c>
       <c r="C244" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D244" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E244" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="F244" t="s">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="G244" t="s">
         <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="I244" t="s">
         <v>16</v>
@@ -9731,28 +9737,28 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B245" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C245" t="s">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="D245" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="E245" s="1">
-        <v>0.87</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="G245" t="s">
         <v>14</v>
       </c>
       <c r="H245" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="I245" t="s">
         <v>16</v>
@@ -9760,28 +9766,28 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B246" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="D246" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E246" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="G246" t="s">
         <v>14</v>
       </c>
       <c r="H246" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="I246" t="s">
         <v>16</v>
@@ -9789,28 +9795,28 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C247" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="D247" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E247" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F247" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="G247" t="s">
         <v>14</v>
       </c>
       <c r="H247" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="I247" t="s">
         <v>16</v>
@@ -9818,28 +9824,28 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="B248" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C248" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="D248" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E248" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F248" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="G248" t="s">
         <v>14</v>
       </c>
       <c r="H248" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="I248" t="s">
         <v>16</v>
@@ -9847,28 +9853,28 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>264</v>
+        <v>387</v>
       </c>
       <c r="B249" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C249" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="D249" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="E249" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F249" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="G249" t="s">
         <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="I249" t="s">
         <v>16</v>
@@ -9876,28 +9882,28 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>264</v>
+        <v>387</v>
       </c>
       <c r="B250" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C250" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="D250" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E250" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F250" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="G250" t="s">
         <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="I250" t="s">
         <v>16</v>
@@ -9905,28 +9911,28 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B251" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C251" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="D251" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E251" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F251" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="G251" t="s">
         <v>14</v>
       </c>
       <c r="H251" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="I251" t="s">
         <v>16</v>
@@ -9934,28 +9940,28 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="B252" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C252" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="D252" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E252" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F252" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="G252" t="s">
         <v>14</v>
       </c>
       <c r="H252" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="I252" t="s">
         <v>16</v>
@@ -9963,28 +9969,28 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="B253" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C253" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="D253" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E253" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F253" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="G253" t="s">
         <v>14</v>
       </c>
       <c r="H253" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="I253" t="s">
         <v>16</v>
@@ -9992,28 +9998,28 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B254" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C254" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="D254" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="E254" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F254" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="G254" t="s">
         <v>14</v>
       </c>
       <c r="H254" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="I254" t="s">
         <v>16</v>
@@ -10021,28 +10027,28 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C255" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="D255" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E255" s="1">
-        <v>0.87</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F255" t="s">
-        <v>460</v>
+        <v>402</v>
       </c>
       <c r="G255" t="s">
         <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="I255" t="s">
         <v>16</v>
@@ -10050,28 +10056,28 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>264</v>
+        <v>387</v>
       </c>
       <c r="B256" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C256" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="D256" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E256" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F256" t="s">
-        <v>271</v>
+        <v>406</v>
       </c>
       <c r="G256" t="s">
         <v>14</v>
       </c>
       <c r="H256" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="I256" t="s">
         <v>16</v>
@@ -10079,28 +10085,28 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="B257" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C257" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="D257" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E257" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F257" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="G257" t="s">
         <v>14</v>
       </c>
       <c r="H257" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="I257" t="s">
         <v>16</v>
@@ -10108,28 +10114,28 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B258" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C258" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="D258" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E258" s="1">
-        <v>0.87</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F258" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="G258" t="s">
         <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="I258" t="s">
         <v>16</v>
@@ -10137,28 +10143,28 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C259" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="D259" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="E259" s="1">
-        <v>0.87</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F259" t="s">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="G259" t="s">
         <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="I259" t="s">
         <v>16</v>
@@ -10166,28 +10172,28 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="B260" t="s">
         <v>38</v>
       </c>
       <c r="C260" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="D260" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="E260" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F260" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="G260" t="s">
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>291</v>
+        <v>381</v>
       </c>
       <c r="I260" t="s">
         <v>16</v>
@@ -10195,28 +10201,28 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B261" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C261" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="D261" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E261" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F261" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="G261" t="s">
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="I261" t="s">
         <v>16</v>
@@ -10224,28 +10230,28 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="B262" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C262" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="D262" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="E262" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F262" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="G262" t="s">
         <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
       <c r="I262" t="s">
         <v>16</v>
@@ -10253,28 +10259,28 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B263" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C263" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="D263" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E263" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F263" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="G263" t="s">
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="I263" t="s">
         <v>16</v>
@@ -10282,28 +10288,28 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="B264" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C264" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="D264" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="E264" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F264" t="s">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="G264" t="s">
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="I264" t="s">
         <v>16</v>
@@ -10311,28 +10317,28 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="B265" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C265" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="D265" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E265" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F265" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="G265" t="s">
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="I265" t="s">
         <v>16</v>
@@ -10340,28 +10346,28 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="B266" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C266" t="s">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="D266" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="E266" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F266" t="s">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="G266" t="s">
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="I266" t="s">
         <v>16</v>
@@ -10369,28 +10375,28 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="B267" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C267" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="D267" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E267" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F267" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="G267" t="s">
         <v>14</v>
       </c>
       <c r="H267" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="I267" t="s">
         <v>16</v>
@@ -10398,28 +10404,28 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B268" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C268" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="D268" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="E268" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F268" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="G268" t="s">
         <v>14</v>
       </c>
       <c r="H268" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="I268" t="s">
         <v>16</v>
@@ -10427,28 +10433,28 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="B269" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C269" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="D269" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E269" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F269" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="G269" t="s">
         <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="I269" t="s">
         <v>16</v>
@@ -10456,28 +10462,28 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="B270" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C270" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="D270" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="E270" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F270" t="s">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="G270" t="s">
         <v>14</v>
       </c>
       <c r="H270" t="s">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="I270" t="s">
         <v>16</v>
@@ -10485,28 +10491,28 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="B271" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C271" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="D271" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="E271" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F271" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="G271" t="s">
         <v>14</v>
       </c>
       <c r="H271" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="I271" t="s">
         <v>16</v>
@@ -10514,28 +10520,28 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="B272" t="s">
         <v>65</v>
       </c>
       <c r="C272" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="D272" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E272" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F272" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G272" t="s">
         <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="I272" t="s">
         <v>16</v>
@@ -10543,28 +10549,28 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B273" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="D273" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="E273" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F273" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="G273" t="s">
         <v>14</v>
       </c>
       <c r="H273" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="I273" t="s">
         <v>16</v>
@@ -10572,28 +10578,28 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="B274" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C274" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="D274" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E274" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F274" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="G274" t="s">
         <v>14</v>
       </c>
       <c r="H274" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="I274" t="s">
         <v>16</v>
@@ -10601,57 +10607,54 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="B275" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C275" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="D275" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E275" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F275" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="G275" t="s">
         <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>280</v>
-      </c>
-      <c r="I275" t="s">
-        <v>16</v>
+        <v>353</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="B276" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C276" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="D276" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="E276" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F276" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="G276" t="s">
         <v>14</v>
       </c>
       <c r="H276" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="I276" t="s">
         <v>16</v>
@@ -10659,28 +10662,28 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="B277" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C277" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="D277" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E277" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F277" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="G277" t="s">
         <v>14</v>
       </c>
       <c r="H277" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="I277" t="s">
         <v>16</v>
@@ -10688,28 +10691,28 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B278" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C278" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="D278" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E278" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F278" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="G278" t="s">
         <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="I278" t="s">
         <v>16</v>
@@ -10717,28 +10720,28 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="B279" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C279" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="D279" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="E279" s="1">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F279" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="G279" t="s">
         <v>14</v>
       </c>
       <c r="H279" t="s">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="I279" t="s">
         <v>16</v>
@@ -10746,28 +10749,28 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="B280" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C280" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="D280" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E280" s="1">
-        <v>0.87</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F280" t="s">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="G280" t="s">
         <v>14</v>
       </c>
       <c r="H280" t="s">
-        <v>441</v>
+        <v>345</v>
       </c>
       <c r="I280" t="s">
         <v>16</v>
@@ -10775,28 +10778,28 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="B281" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C281" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="D281" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="E281" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F281" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="G281" t="s">
         <v>14</v>
       </c>
       <c r="H281" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="I281" t="s">
         <v>16</v>
@@ -10804,57 +10807,54 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B282" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C282" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="D282" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E282" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F282" t="s">
-        <v>252</v>
+        <v>350</v>
       </c>
       <c r="G282" t="s">
         <v>14</v>
       </c>
       <c r="H282" t="s">
-        <v>253</v>
-      </c>
-      <c r="I282" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="B283" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C283" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="D283" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="E283" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F283" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="G283" t="s">
         <v>14</v>
       </c>
       <c r="H283" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="I283" t="s">
         <v>16</v>
@@ -10862,28 +10862,28 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B284" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C284" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="D284" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E284" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F284" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="G284" t="s">
         <v>14</v>
       </c>
       <c r="H284" t="s">
-        <v>261</v>
+        <v>359</v>
       </c>
       <c r="I284" t="s">
         <v>16</v>
@@ -10891,28 +10891,28 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="B285" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C285" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="D285" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="E285" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F285" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="G285" t="s">
         <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="I285" t="s">
         <v>16</v>
@@ -10920,28 +10920,28 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B286" t="s">
         <v>62</v>
       </c>
       <c r="C286" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="D286" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E286" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="F286" t="s">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="G286" t="s">
         <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>257</v>
+        <v>363</v>
       </c>
       <c r="I286" t="s">
         <v>16</v>
@@ -10949,7 +10949,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:I286">
-    <sortCondition ref="H1"/>
+    <sortCondition descending="1" ref="A163"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
